--- a/Mito-mapping-SRR11093270-GXP3B.xlsx
+++ b/Mito-mapping-SRR11093270-GXP3B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenemassey/Desktop/Pangolin-AJ-Daoyu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenemassey/Desktop/Pangolin-AJ-Daoyu/Mito-mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3091E-A80E-8B47-959A-DABE6A308FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488C4575-F3D3-A44E-B9B9-FA291AE1B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="500" windowWidth="28040" windowHeight="17100" xr2:uid="{9E3AEB7B-25DC-8A4D-AB09-B659BA562E24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="11889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12086" uniqueCount="11919">
   <si>
     <t>GX/P3B</t>
   </si>
@@ -35703,6 +35703,96 @@
   </si>
   <si>
     <t>DRR001793</t>
+  </si>
+  <si>
+    <t>No filtering</t>
+  </si>
+  <si>
+    <t>NC_042172.1</t>
+  </si>
+  <si>
+    <t>Balbiania investiens</t>
+  </si>
+  <si>
+    <t>NC_002553.1</t>
+  </si>
+  <si>
+    <t>Malawimonas jakobiformis</t>
+  </si>
+  <si>
+    <t>NC_056921.1</t>
+  </si>
+  <si>
+    <t>Balala fujiana</t>
+  </si>
+  <si>
+    <t>NC_035818.1</t>
+  </si>
+  <si>
+    <t>Sundamys muelleri</t>
+  </si>
+  <si>
+    <t>NC_026126.1</t>
+  </si>
+  <si>
+    <t>Berkeleya fennica</t>
+  </si>
+  <si>
+    <t>NC_035819.1</t>
+  </si>
+  <si>
+    <t>Leopoldamys sabanus</t>
+  </si>
+  <si>
+    <t>NC_049115.1</t>
+  </si>
+  <si>
+    <t>Praomys rostratus</t>
+  </si>
+  <si>
+    <t>NC_031850.1</t>
+  </si>
+  <si>
+    <t>Bellamya quadrata</t>
+  </si>
+  <si>
+    <t>NC_049120.1</t>
+  </si>
+  <si>
+    <t>Heimyscus fumosus</t>
+  </si>
+  <si>
+    <t>NC_026780.1</t>
+  </si>
+  <si>
+    <t>Manis tricuspis</t>
+  </si>
+  <si>
+    <t>NC_061653.1</t>
+  </si>
+  <si>
+    <t>Daclera levana</t>
+  </si>
+  <si>
+    <t>NC_007935.1</t>
+  </si>
+  <si>
+    <t>Paracoccidioides brasiliensis</t>
+  </si>
+  <si>
+    <t>NC_001823.1</t>
+  </si>
+  <si>
+    <t>Reclinomonas americana</t>
+  </si>
+  <si>
+    <t>NC_035594.1</t>
+  </si>
+  <si>
+    <t>Neotoma mexicana</t>
+  </si>
+  <si>
+    <t>Reads &lt; 20 bp removed</t>
   </si>
 </sst>
 </file>
@@ -36054,20 +36144,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D782F04-2DEB-6144-A0BD-278E8AD55596}">
-  <dimension ref="A1:C5996"/>
+  <dimension ref="A1:H5996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>11889</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11870</v>
       </c>
@@ -36077,8 +36176,17 @@
       <c r="C3" t="s">
         <v>11872</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>11870</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11871</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -36088,8 +36196,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>82.2958</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -36099,8 +36216,17 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>81.056899999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -36110,8 +36236,17 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>30.132100000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -36121,8 +36256,17 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7">
+        <v>9.375</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -36132,8 +36276,17 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G8">
+        <v>6.5902200000000004</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -36143,8 +36296,17 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>6014</v>
+      </c>
+      <c r="G9">
+        <v>2.19035</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -36154,8 +36316,17 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G10">
+        <v>1.7561899999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -36165,8 +36336,17 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>5294</v>
+      </c>
+      <c r="G11">
+        <v>1.7183200000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -36176,8 +36356,17 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G12">
+        <v>1.5631600000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -36187,8 +36376,17 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>11890</v>
+      </c>
+      <c r="G13">
+        <v>1.5347299999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -36198,8 +36396,17 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>5762</v>
+      </c>
+      <c r="G14">
+        <v>1.51945</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -36209,8 +36416,17 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>11892</v>
+      </c>
+      <c r="G15">
+        <v>1.41143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -36220,8 +36436,17 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G16">
+        <v>1.38243</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -36231,8 +36456,17 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>11894</v>
+      </c>
+      <c r="G17">
+        <v>1.37476</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -36242,8 +36476,17 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>11896</v>
+      </c>
+      <c r="G18">
+        <v>1.3650800000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -36253,8 +36496,17 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>11898</v>
+      </c>
+      <c r="G19">
+        <v>1.30108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -36264,8 +36516,17 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>9077</v>
+      </c>
+      <c r="G20">
+        <v>1.2947200000000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -36275,8 +36536,17 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>8893</v>
+      </c>
+      <c r="G21">
+        <v>1.2654399999999999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -36286,8 +36556,17 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>5101</v>
+      </c>
+      <c r="G22">
+        <v>1.1941900000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -36297,8 +36576,17 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>8879</v>
+      </c>
+      <c r="G23">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -36308,8 +36596,17 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>6288</v>
+      </c>
+      <c r="G24">
+        <v>1.1802999999999999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -36319,8 +36616,17 @@
       <c r="C25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>11900</v>
+      </c>
+      <c r="G25">
+        <v>1.16432</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -36330,8 +36636,17 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>11902</v>
+      </c>
+      <c r="G26">
+        <v>1.1202799999999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -36341,8 +36656,17 @@
       <c r="C27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>11904</v>
+      </c>
+      <c r="G27">
+        <v>1.11524</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -36352,8 +36676,17 @@
       <c r="C28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>11906</v>
+      </c>
+      <c r="G28">
+        <v>1.1079699999999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -36363,8 +36696,17 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>11908</v>
+      </c>
+      <c r="G29">
+        <v>1.0802700000000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -36374,8 +36716,17 @@
       <c r="C30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>1.07029</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -36385,8 +36736,17 @@
       <c r="C31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>3863</v>
+      </c>
+      <c r="G31">
+        <v>1.0668599999999999</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -36396,8 +36756,17 @@
       <c r="C32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>7397</v>
+      </c>
+      <c r="G32">
+        <v>1.0637000000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -36407,8 +36776,17 @@
       <c r="C33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>11910</v>
+      </c>
+      <c r="G33">
+        <v>1.05623</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -36418,8 +36796,17 @@
       <c r="C34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>11912</v>
+      </c>
+      <c r="G34">
+        <v>1.04297</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -36429,8 +36816,17 @@
       <c r="C35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>10793</v>
+      </c>
+      <c r="G35">
+        <v>1.0392699999999999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -36440,8 +36836,17 @@
       <c r="C36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>11914</v>
+      </c>
+      <c r="G36">
+        <v>1.0371699999999999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -36451,8 +36856,17 @@
       <c r="C37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>11157</v>
+      </c>
+      <c r="G37">
+        <v>1.0239100000000001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -36462,8 +36876,17 @@
       <c r="C38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>11916</v>
+      </c>
+      <c r="G38">
+        <v>1.02084</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -36473,8 +36896,17 @@
       <c r="C39" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>9494</v>
+      </c>
+      <c r="G39">
+        <v>1.0004900000000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -36485,7 +36917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -36496,7 +36928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -36507,7 +36939,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -36518,7 +36950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -36529,7 +36961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -36540,7 +36972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -36551,7 +36983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -36562,7 +36994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
